--- a/Proyectos/Proyecto2/tabla.xlsx
+++ b/Proyectos/Proyecto2/tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\ProyectosProgramacion\REDES2\REDES2_1S2025_G15\Proyectos\Proyecto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12A2AFE-E7D7-4C36-83A1-D5C1D34325C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE1B750-AF6D-46FC-9744-5B38989777B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{154425BE-B7AB-43ED-8A6A-C6135300C189}"/>
   </bookViews>
@@ -1050,7 +1050,7 @@
   <dimension ref="A3:AC99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
